--- a/Excerise1/Excercise03/Default.xlsx
+++ b/Excerise1/Excercise03/Default.xlsx
@@ -494,7 +494,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -520,7 +520,7 @@
     </row>
     <row>
       <c s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
